--- a/src/test/resources/archivos/Muestra-Excel.xlsx
+++ b/src/test/resources/archivos/Muestra-Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riiuzaky\Documents\Automatizaciones\Opsitel\src\test\resources\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F289B6C1-8594-4E72-8E33-4687DE78665D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BED16C2-B417-46A6-912E-4DCD81B0BCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>RUC</t>
-  </si>
-  <si>
-    <t>20538190528</t>
-  </si>
-  <si>
-    <t>20604478121</t>
   </si>
 </sst>
 </file>
@@ -382,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A93"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,411 +448,6 @@
         <v>20554554149</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>20563571498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>20512068511</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>20508401150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>20514628743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>20550138612</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>20545168945</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>20518832175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>20514325171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20513253541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>20600304985</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>20548513163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>20511112908</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>20601943736</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>20445387925</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>20600417208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>20548417105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>20491353865</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>20524272157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>20543977633</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>20552108885</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>20544855736</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>20602037194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>20503586151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>20505716451</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>20601800731</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>20554525807</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>20566191513</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>20472708806</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>20422217321</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>20602530681</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>20506485836</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>20514937533</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>20600993284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>20600333357</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>20538381978</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>20537121182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>20537877112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>20509734098</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>20507532129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>20431948282</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>20512856111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>20553612404</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>20508536161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>20492592049</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>20601390672</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>20492317846</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>20554289054</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>20504317545</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>20515345494</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>20602421458</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>20518669835</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>20523925513</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>20601087694</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>20507983996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>20601504716</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>20552044895</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>20513783770</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>20504463959</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>20555621648</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>20600804791</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>20557461923</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>20514710598</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>20600715756</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>20516723301</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>20546783988</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>20546653189</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>20521019485</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>20296880010</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>20601113989</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>20555152559</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>20602072607</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>20550283973</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>20161628337</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>20487217965</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>20548442631</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>20549086013</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>20601045045</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>20508932864</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>20538774350</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
